--- a/src/analysis_examples/circadb/results_lomb/cosinor_10502510_lmo4_.xlsx
+++ b/src/analysis_examples/circadb/results_lomb/cosinor_10502510_lmo4_.xlsx
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.2452732809532001, 0.3234328387473002]</t>
+          <t>[0.2446159425162281, 0.32409017718427224]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>9.088285679581531e-13</v>
+        <v>1.253663839406727e-12</v>
       </c>
       <c r="N2" t="n">
-        <v>9.088285679581531e-13</v>
+        <v>1.253663839406727e-12</v>
       </c>
       <c r="O2" t="n">
         <v>0.1320789704211931</v>
@@ -617,7 +617,7 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.4813715817091089, 0.5298259578461859]</t>
+          <t>[0.4813699019164519, 0.5298276376388429]</t>
         </is>
       </c>
       <c r="U2" t="n">
